--- a/20 Results/selectionhost.xlsx
+++ b/20 Results/selectionhost.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qx217\Documents\rotavirus\20 Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rotavirus\20 Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,15 +263,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +304,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -400,6 +399,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB63-4626-9E83-8F52BA028F44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -460,6 +464,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB63-4626-9E83-8F52BA028F44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -591,7 +600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -659,7 +667,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -673,7 +681,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -769,6 +776,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-109A-4BAC-A3A2-28E06D5C674D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -829,6 +841,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-109A-4BAC-A3A2-28E06D5C674D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -960,7 +977,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,7 +1044,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1042,7 +1058,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1138,6 +1153,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E26-47A8-8216-EBA2437E5189}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1198,6 +1218,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E26-47A8-8216-EBA2437E5189}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1329,7 +1354,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1397,7 +1421,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1411,7 +1435,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1519,6 +1542,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51DB-4545-A43F-A0D40A86B67B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1591,6 +1619,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51DB-4545-A43F-A0D40A86B67B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1663,6 +1696,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51DB-4545-A43F-A0D40A86B67B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1794,7 +1832,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1862,7 +1899,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1876,7 +1913,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1990,6 +2026,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6004-4B21-B585-9B622527EBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2068,6 +2109,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6004-4B21-B585-9B622527EBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2146,6 +2192,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6004-4B21-B585-9B622527EBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2277,7 +2328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2345,7 +2395,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2359,7 +2409,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Selection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> in RVB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2467,6 +2546,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ADE-4774-885D-14A6A01C9432}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2539,6 +2623,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ADE-4774-885D-14A6A01C9432}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2560,6 +2649,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Proteins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2625,6 +2769,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>dN/dS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2670,7 +2869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2738,7 +2936,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2752,7 +2950,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Selection in RVC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2866,6 +3088,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7279-46F6-ABE5-6AA37DB1B18C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2944,6 +3171,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7279-46F6-ABE5-6AA37DB1B18C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2965,6 +3197,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Proteins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3030,6 +3317,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>dN/dS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3075,7 +3417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7137,14 +7478,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
@@ -7244,6 +7585,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7279,6 +7637,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7718,12 +8093,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="F1" t="s">
         <v>25</v>
       </c>
@@ -7776,19 +8151,19 @@
       <c r="I3">
         <v>2.2715378976928598E-2</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7817,19 +8192,19 @@
       <c r="I4">
         <v>3.0616358711997398E-2</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>3</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>0.14390085431422159</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>4.7966951438073863E-2</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>1.4211836910648966E-3</v>
       </c>
     </row>
@@ -7846,19 +8221,19 @@
       <c r="D5">
         <v>2.90752645821509E-2</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>3</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>0.19035118348117538</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>6.3450394493725124E-2</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>1.0740967508344234E-3</v>
       </c>
     </row>
@@ -7875,11 +8250,11 @@
       <c r="D6">
         <v>7.8243559586239797E-2</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7894,19 +8269,19 @@
       <c r="D7">
         <v>2.1304132056855801E-2</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>0.18746311642301489</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>9.3731558211507443E-2</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>1.1822369807437068E-5</v>
       </c>
     </row>
@@ -7923,36 +8298,36 @@
       <c r="D8">
         <v>3.09682684877715E-2</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>9.3457183683456097E-2</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>4.6728591841728048E-2</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>5.6739902562360969E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>2</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <v>5.3331737688925997E-2</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <v>2.6665868844462998E-2</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>3.1212740386984007E-5</v>
       </c>
     </row>
@@ -7962,48 +8337,48 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="6" t="s">
+      <c r="W13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.5960551328639498E-4</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>3.5960551328639498E-4</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>2.8673403350611646</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>0.23247281806545461</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>18.512820512820511</v>
       </c>
     </row>
@@ -8011,25 +8386,25 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>4.7397322612670011E-3</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>2</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>2.3698661306335005E-3</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>18.896297453729421</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>5.0260607649518084E-2</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>18.999999999999996</v>
       </c>
     </row>
@@ -8043,21 +8418,21 @@
       <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>2.5082862253163543E-4</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>2</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>1.2541431126581772E-4</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
     </row>
     <row r="17" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
@@ -8072,13 +8447,13 @@
       <c r="I17">
         <v>3.5645046269771399E-2</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
     </row>
     <row r="18" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
@@ -8093,19 +8468,19 @@
       <c r="I18">
         <v>3.0551107291359202E-2</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>5.3501663970850315E-3</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <v>5</v>
       </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
     <row r="20" spans="6:24" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
@@ -8114,77 +8489,77 @@
     </row>
     <row r="21" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>3</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>0.13609061485298712</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="3">
         <v>4.5363538284329041E-2</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="3">
         <v>4.9988843804415041E-4</v>
       </c>
     </row>
     <row r="24" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>3</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>0.21395904619771111</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>7.1319682065903708E-2</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <v>1.4646098357805832E-3</v>
       </c>
     </row>
     <row r="25" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>2</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>0.13597978711587219</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="3">
         <v>6.7989893557936096E-2</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <v>2.9615240183235043E-3</v>
       </c>
     </row>
@@ -8192,19 +8567,19 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <v>2</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>0.14787372037369539</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="3">
         <v>7.3936860186847697E-2</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="3">
         <v>1.8006175371907361E-5</v>
       </c>
     </row>
@@ -8218,19 +8593,19 @@
       <c r="I28" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>2</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="4">
         <v>6.6196153561130594E-2</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="4">
         <v>3.3098076780565297E-2</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <v>1.2974107157893552E-5</v>
       </c>
     </row>
@@ -8268,114 +8643,114 @@
       </c>
     </row>
     <row r="32" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="T32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="U32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W32" s="6" t="s">
+      <c r="W32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="6" t="s">
+      <c r="X32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="3">
         <v>1.0105821000146653E-3</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="3">
         <v>1</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="3">
         <v>1.0105821000146653E-3</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="3">
         <v>1.0197999695316433</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="3">
         <v>0.41887653888489762</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="3">
         <v>18.512820512820511</v>
       </c>
     </row>
     <row r="34" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="3">
         <v>1.9470743468108327E-3</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="3">
         <v>2</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="3">
         <v>9.7353717340541634E-4</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="3">
         <v>0.98241714331013619</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="3">
         <v>0.50443470153322645</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X34" s="3">
         <v>18.999999999999996</v>
       </c>
     </row>
     <row r="35" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="3">
         <v>1.9819222008386379E-3</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="3">
         <v>2</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="3">
         <v>9.9096110041931897E-4</v>
       </c>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
     </row>
     <row r="36" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
     </row>
     <row r="37" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="4">
         <v>4.9395786476641359E-3</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="4">
         <v>5</v>
       </c>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="39" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
@@ -8384,111 +8759,111 @@
     </row>
     <row r="40" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="T41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="U41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42" s="3">
         <v>3</v>
       </c>
-      <c r="T42" s="4">
+      <c r="T42" s="3">
         <v>0.1329400889214698</v>
       </c>
-      <c r="U42" s="4">
+      <c r="U42" s="3">
         <v>4.4313362973823267E-2</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V42" s="3">
         <v>1.1122412746140797E-3</v>
       </c>
     </row>
     <row r="43" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="3">
         <v>3</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43" s="3">
         <v>0.22599135085518729</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="3">
         <v>7.5330450285062425E-2</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43" s="3">
         <v>1.8472574952022869E-3</v>
       </c>
     </row>
     <row r="44" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
     </row>
     <row r="45" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="3">
         <v>2</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="3">
         <v>0.19934021506363908</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="3">
         <v>9.9670107531819541E-2</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="3">
         <v>5.854641803498227E-4</v>
       </c>
     </row>
     <row r="46" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R46" s="4" t="s">
+      <c r="R46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46" s="3">
         <v>2</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T46" s="3">
         <v>0.1073188241683907</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="3">
         <v>5.3659412084195349E-2</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V46" s="3">
         <v>1.2087606168045568E-3</v>
       </c>
     </row>
     <row r="47" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="4">
         <v>2</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="4">
         <v>5.2272400544627298E-2</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="4">
         <v>2.6136200272313649E-2</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="4">
         <v>4.6697766477676308E-5</v>
       </c>
     </row>
@@ -8498,114 +8873,114 @@
       </c>
     </row>
     <row r="51" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R51" s="6" t="s">
+      <c r="R51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S51" s="6" t="s">
+      <c r="S51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T51" s="6" t="s">
+      <c r="T51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U51" s="6" t="s">
+      <c r="U51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="6" t="s">
+      <c r="V51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="W51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X51" s="6" t="s">
+      <c r="X51" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R52" s="4" t="s">
+      <c r="R52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="3">
         <v>1.4430895579095491E-3</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="3">
         <v>1</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="3">
         <v>1.4430895579095491E-3</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="3">
         <v>7.2547502954851559</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="3">
         <v>0.11462168332043965</v>
       </c>
-      <c r="X52" s="4">
+      <c r="X52" s="3">
         <v>18.512820512820511</v>
       </c>
     </row>
     <row r="53" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R53" s="4" t="s">
+      <c r="R53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="3">
         <v>5.5211645339102288E-3</v>
       </c>
-      <c r="T53" s="4">
+      <c r="T53" s="3">
         <v>2</v>
       </c>
-      <c r="U53" s="4">
+      <c r="U53" s="3">
         <v>2.7605822669551144E-3</v>
       </c>
-      <c r="V53" s="4">
+      <c r="V53" s="3">
         <v>13.878095719793839</v>
       </c>
-      <c r="W53" s="4">
+      <c r="W53" s="3">
         <v>6.7212902701627247E-2</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="3">
         <v>18.999999999999996</v>
       </c>
     </row>
     <row r="54" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R54" s="4" t="s">
+      <c r="R54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S54" s="3">
         <v>3.9783300572250602E-4</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T54" s="3">
         <v>2</v>
       </c>
-      <c r="U54" s="4">
+      <c r="U54" s="3">
         <v>1.9891650286125301E-4</v>
       </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
     </row>
     <row r="55" spans="18:24" x14ac:dyDescent="0.25">
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
     </row>
     <row r="56" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R56" s="5" t="s">
+      <c r="R56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S56" s="5">
+      <c r="S56" s="4">
         <v>7.3620870975422839E-3</v>
       </c>
-      <c r="T56" s="5">
+      <c r="T56" s="4">
         <v>5</v>
       </c>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8620,19 +8995,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="F1" t="s">
         <v>27</v>
       </c>
@@ -8664,34 +9039,34 @@
       <c r="D3">
         <v>8.25606922824631E-2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8708,34 +9083,34 @@
       <c r="D4">
         <v>2.90752645821509E-2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.20337018061438819</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>6.7790060204796068E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>1.1181619091628903E-3</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.31941293798813797</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>0.10647097932937932</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>1.0626178836815902E-4</v>
       </c>
     </row>
@@ -8752,39 +9127,39 @@
       <c r="D5">
         <v>7.8852876369858493E-2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.12989682017073451</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4.3298940056911504E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>5.7303364243880845E-4</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0.21875290805480768</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>7.2917636018269227E-2</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>6.5932582665781039E-5</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -8796,34 +9171,34 @@
       <c r="D6">
         <v>2.1304132056855801E-2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.2851346621987591</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>9.5044887399586372E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>6.9478911567008757E-4</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.36336653624040399</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>0.12112217874680133</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>3.7656623274614706E-4</v>
       </c>
     </row>
@@ -8840,66 +9215,66 @@
       <c r="D7">
         <v>5.6436511687720001E-2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>7.9664557303555802E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>2.6554852434518602E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>6.2471622439204486E-5</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>3</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>0.17449867930307039</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>5.8166226434356795E-2</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>3.6414721847896885E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.1979954070635479</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>6.5998469021182629E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>2.2771377653553037E-4</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0.20187187911779308</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>6.7290626372597695E-2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>2.1904371858365128E-4</v>
       </c>
     </row>
@@ -8913,24 +9288,24 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>9.2135734491128093E-2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>3.0711911497042697E-2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>5.0353616995470388E-8</v>
       </c>
     </row>
@@ -8947,26 +9322,26 @@
       <c r="D10">
         <v>0.116779522781176</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.28288675866484919</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>5.6577351732969836E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>9.1377098878111466E-4</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8981,39 +9356,39 @@
       <c r="D11">
         <v>7.8243559586239797E-2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.34494539170708804</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>6.8989078341417612E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>1.5176961340708627E-3</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>6</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>0.43389388551588409</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>7.2315647585980677E-2</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>1.6922632104508881E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B12">
@@ -9025,34 +9400,34 @@
       <c r="D12">
         <v>0.11523972766448599</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.26822947697904831</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>5.3645895395809662E-2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>7.8223761564129345E-4</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>6</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>0.4827853956647512</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>8.0464232610791872E-2</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>7.6319616959276274E-4</v>
       </c>
     </row>
@@ -9069,19 +9444,19 @@
       <c r="D13">
         <v>5.3625634320866603E-2</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>6</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>0.45335939401470599</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>7.5559899002450998E-2</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>1.2082444760716251E-3</v>
       </c>
     </row>
@@ -9117,25 +9492,25 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N16" t="s">
@@ -9143,193 +9518,193 @@
       </c>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>8.1659082490832501E-3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>2.0414770622708125E-3</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>3.4830726209255438</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>6.2682384620088183E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>3.8378533545558975</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>6.6342942760320121E-4</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>3.3171471380160061E-4</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.56595612018061447</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.58899693017207211</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>4.4589701075245118</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>1.6256469678260478E-2</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>5</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>3.2512939356520955E-3</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>15.767292561733457</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>1.8291150583562166E-4</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>3.325834530413013</v>
       </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>4.6889107048898419E-3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>5.8611383811123024E-4</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>2.0195418660349726E-4</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>1.0097709330174863E-4</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>0.48969284341337171</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>0.62677229778942123</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>4.1028210151304032</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>2.0620496023159018E-3</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>10</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>2.0620496023159018E-4</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>1.3518248381576293E-2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>14</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>1.8520473467179877E-2</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>17</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9344,19 +9719,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>27</v>
       </c>
@@ -9382,34 +9757,34 @@
       <c r="C3">
         <v>8.25606922824631E-2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9423,34 +9798,34 @@
       <c r="C4">
         <v>2.90752645821509E-2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.11206991524902629</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>5.6034957624513146E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1.4072291982879358E-3</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>2</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.22325008693048498</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.11162504346524249</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>5.3137314036772528E-5</v>
       </c>
     </row>
@@ -9464,39 +9839,39 @@
       <c r="C5">
         <v>7.8852876369858493E-2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.10001161019880341</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5.0005805099401703E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>8.7617505268855478E-4</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>0.1551809343432827</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>7.759046717164135E-2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>8.5305940401205905E-7</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -9505,34 +9880,34 @@
       <c r="C6">
         <v>2.1304132056855801E-2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.20431311514793049</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.10215655757396525</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1.086123115325275E-3</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.220578447450583</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.1102892237252915</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>4.9014978503960423E-5</v>
       </c>
     </row>
@@ -9546,66 +9921,66 @@
       <c r="C7">
         <v>5.6436511687720001E-2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>5.6949178326627201E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.84745891633136E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1.0283091023110223E-4</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.1327352520541385</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>6.6367626027069249E-2</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>3.2471670528187377E-4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.13983104976374888</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>6.9915524881874441E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>3.6336759337638261E-4</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.14288069312183729</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>7.1440346560918647E-2</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>3.3476637131914927E-4</v>
       </c>
     </row>
@@ -9616,24 +9991,24 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>6.1519375779130706E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>3.0759687889565353E-2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>8.7011731896070294E-8</v>
       </c>
     </row>
@@ -9647,26 +10022,26 @@
       <c r="C10">
         <v>0.116779522781176</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.34494539170708804</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>6.8989078341417612E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1.5176961340708627E-3</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9678,34 +10053,34 @@
       <c r="C11">
         <v>7.8243559586239797E-2</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.26822947697904831</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>5.3645895395809662E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>7.8223761564129345E-4</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>6</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.4827853956647512</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>8.0464232610791872E-2</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>7.6319616959276274E-4</v>
       </c>
     </row>
@@ -9719,24 +10094,24 @@
       <c r="C12">
         <v>0.11523972766448599</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>6</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>0.45335939401470599</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>7.5559899002450998E-2</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>1.2082444760716251E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -9770,25 +10145,25 @@
       <c r="C15">
         <v>3.09682684877715E-2</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="M15" t="s">
@@ -9796,191 +10171,191 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>5.952542286195372E-3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1.488135571548843E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1.833134899262441</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.28580631361312619</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>6.38823290869587</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>5.8853315725598473E-4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>5.8853315725598473E-4</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.72497472042562894</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.4424897533948593</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>7.708647422176786</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>9.1667852524699774E-3</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>5</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>1.8333570504939956E-3</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>13.277153221797809</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>6.531301098878152E-3</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>5.0503290576326485</v>
       </c>
     </row>
     <row r="18" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>3.2471927126532631E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>8.1179817816331577E-4</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="M18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>7.2157464425704268E-5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>1</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>7.2157464425704268E-5</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>0.52256362775508247</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>0.50213857973130982</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>6.607890973703368</v>
       </c>
     </row>
     <row r="19" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>6.9041797585196046E-4</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>5</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>1.3808359517039208E-4</v>
       </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>9.7882681561046198E-3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>9</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>9.9293606927476422E-3</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>11</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20 Results/selectionhost.xlsx
+++ b/20 Results/selectionhost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Proteins" sheetId="2" r:id="rId3"/>
     <sheet name="Host" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="65">
   <si>
     <t>NSP1B</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Between Proteins</t>
   </si>
   <si>
-    <t>Between Hosts</t>
-  </si>
-  <si>
     <t>NSP1</t>
   </si>
   <si>
@@ -184,12 +181,57 @@
   <si>
     <t>RVC</t>
   </si>
+  <si>
+    <t>Difference in AIC Values between Model without Host Effect and Model with Host Effect</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Non-Human</t>
+  </si>
+  <si>
+    <t>Table 2: Comparison of Selection Pressures in RV Genes Between Human and Non-Human Hosts</t>
+  </si>
+  <si>
+    <t>NSP2</t>
+  </si>
+  <si>
+    <t>NSP5</t>
+  </si>
+  <si>
+    <t>VP7</t>
+  </si>
+  <si>
+    <t>NSP4</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>VP4</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>β/α Value of Host Branch</t>
+  </si>
+  <si>
+    <t>Ratios of the non-synonymous substitution rates (β) to synonymous substitutions rates (α) were assigned to the host branches in each dataset. The difference in AIC values between models with and without host effect is a significance measure of the host effect on selection. A positive value for the difference indicates that host effect is signifcant (highlighted in green).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +254,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -255,11 +317,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -269,8 +374,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2480,7 +2621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Host!$B$2</c:f>
+              <c:f>Host!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2499,34 +2640,144 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Host!$A$3:$A$7</c:f>
+              <c:f>Host!$B$4:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NSP1B</c:v>
+                  <c:v>NSP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NSP2B</c:v>
+                  <c:v>NSP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NSP5B</c:v>
+                  <c:v>NSP5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VP6B</c:v>
+                  <c:v>VP6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VP7B</c:v>
+                  <c:v>VP7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Host!$B$3:$B$7</c:f>
+              <c:f>Host!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.9509222966563199E-2</c:v>
@@ -2557,11 +2808,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Host!$C$2</c:f>
+              <c:f>Host!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non-human</c:v>
+                  <c:v>Non-Human</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,34 +2827,117 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Host!$A$3:$A$7</c:f>
+              <c:f>Host!$B$4:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NSP1B</c:v>
+                  <c:v>NSP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NSP2B</c:v>
+                  <c:v>NSP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NSP5B</c:v>
+                  <c:v>NSP5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VP6B</c:v>
+                  <c:v>VP6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VP7B</c:v>
+                  <c:v>VP7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Host!$C$3:$C$7</c:f>
+              <c:f>Host!$D$4:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.25606922824631E-2</c:v>
@@ -2789,8 +3123,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-SG"/>
-                  <a:t>dN/dS</a:t>
+                  <a:rPr lang="en-SG" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>non-synonymous/synonymous substitution rates (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>β/α)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2824,7 +3166,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2907,12 +3249,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2932,6 +3269,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3016,7 +3354,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Host!$B$9</c:f>
+              <c:f>Host!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3035,37 +3373,147 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Host!$A$10:$A$15</c:f>
+              <c:f>Host!$B$9:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>NSP1C</c:v>
+                  <c:v>NSP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NSP2C</c:v>
+                  <c:v>NSP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NSP4C</c:v>
+                  <c:v>NSP4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VP1C</c:v>
+                  <c:v>VP1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VP4C</c:v>
+                  <c:v>VP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>VP6C</c:v>
+                  <c:v>VP6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Host!$B$10:$B$15</c:f>
+              <c:f>Host!$C$9:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.106470564149309</c:v>
@@ -3099,11 +3547,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Host!$C$9</c:f>
+              <c:f>Host!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non-human</c:v>
+                  <c:v>Non-Human</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,37 +3566,147 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>X</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Host!$A$10:$A$15</c:f>
+              <c:f>Host!$B$9:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>NSP1C</c:v>
+                  <c:v>NSP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NSP2C</c:v>
+                  <c:v>NSP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>NSP4C</c:v>
+                  <c:v>NSP4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VP1C</c:v>
+                  <c:v>VP1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VP4C</c:v>
+                  <c:v>VP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>VP6C</c:v>
+                  <c:v>VP6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Host!$C$10:$C$15</c:f>
+              <c:f>Host!$D$9:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.116779522781176</c:v>
@@ -3337,9 +3895,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-SG"/>
-                  <a:t>dN/dS</a:t>
+                  <a:rPr lang="en-SG" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>non-synonymous/synonymous substitution rates (</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>β/α)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-SG"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3372,7 +3944,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3455,12 +4027,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3480,6 +4047,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7448,15 +8016,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7478,15 +8046,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7507,6 +8075,302 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01189</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07285</cdr:x>
+      <cdr:y>0.11496</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="260392" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" b="1"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06806</cdr:x>
+      <cdr:y>0.11496</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="260392" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" b="1"/>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8093,12 +8957,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="F1" t="s">
         <v>25</v>
       </c>
@@ -8117,13 +8981,13 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -8140,7 +9004,7 @@
         <v>8.25606922824631E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>9.1300265365361899E-2</v>
@@ -8181,7 +9045,7 @@
         <v>0.116779522781176</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>9.6162851057653001E-2</v>
@@ -8193,7 +9057,7 @@
         <v>3.0616358711997398E-2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S4" s="3">
         <v>3</v>
@@ -8222,7 +9086,7 @@
         <v>2.90752645821509E-2</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" s="3">
         <v>3</v>
@@ -8270,7 +9134,7 @@
         <v>2.1304132056855801E-2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="3">
         <v>2</v>
@@ -8299,7 +9163,7 @@
         <v>3.09682684877715E-2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S8" s="3">
         <v>2</v>
@@ -8316,7 +9180,7 @@
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S9" s="4">
         <v>2</v>
@@ -8410,13 +9274,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>43</v>
@@ -8436,7 +9300,7 @@
     </row>
     <row r="17" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2.9509222966563199E-2</v>
@@ -8457,7 +9321,7 @@
     </row>
     <row r="18" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>0.106470564149309</v>
@@ -8507,7 +9371,7 @@
     </row>
     <row r="23" spans="6:24" x14ac:dyDescent="0.25">
       <c r="R23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S23" s="3">
         <v>3</v>
@@ -8524,7 +9388,7 @@
     </row>
     <row r="24" spans="6:24" x14ac:dyDescent="0.25">
       <c r="R24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S24" s="3">
         <v>3</v>
@@ -8548,7 +9412,7 @@
     </row>
     <row r="26" spans="6:24" x14ac:dyDescent="0.25">
       <c r="R26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S26" s="3">
         <v>2</v>
@@ -8568,7 +9432,7 @@
         <v>23</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S27" s="3">
         <v>2</v>
@@ -8585,16 +9449,16 @@
     </row>
     <row r="28" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
       <c r="R28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S28" s="4">
         <v>2</v>
@@ -8611,7 +9475,7 @@
     </row>
     <row r="29" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>8.25606922824631E-2</v>
@@ -8625,7 +9489,7 @@
     </row>
     <row r="30" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>0.116779522781176</v>
@@ -8777,7 +9641,7 @@
     </row>
     <row r="42" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S42" s="3">
         <v>3</v>
@@ -8794,7 +9658,7 @@
     </row>
     <row r="43" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S43" s="3">
         <v>3</v>
@@ -8818,7 +9682,7 @@
     </row>
     <row r="45" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S45" s="3">
         <v>2</v>
@@ -8835,7 +9699,7 @@
     </row>
     <row r="46" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S46" s="3">
         <v>2</v>
@@ -8852,7 +9716,7 @@
     </row>
     <row r="47" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S47" s="4">
         <v>2</v>
@@ -8995,19 +9859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="F1" t="s">
         <v>27</v>
       </c>
@@ -9717,649 +10581,813 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="18.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="44.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C4" s="13">
+        <v>2.9509222966563199E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8.25606922824631E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>G4-F4</f>
+        <v>16.721826214399698</v>
+      </c>
+      <c r="F4">
+        <v>14050.2981459601</v>
+      </c>
+      <c r="G4">
+        <v>14067.019972174499</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7.0936345616652505E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2.90752645821509E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E14" si="0">G5-F5</f>
+        <v>16.522969850400841</v>
+      </c>
+      <c r="F5">
+        <v>17878.384167713499</v>
+      </c>
+      <c r="G5">
+        <v>17894.9071375639</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.11206991524902629</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.6034957624513146E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.4072291982879358E-3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.22325008693048498</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.11162504346524249</v>
+      </c>
+      <c r="T5" s="3">
+        <v>5.3137314036772528E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.125460238778072</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7.8852876369858493E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63114174909969734</v>
+      </c>
+      <c r="F6">
+        <v>12349.644163378</v>
+      </c>
+      <c r="G6">
+        <v>12350.275305127099</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.10001161019880341</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.0005805099401703E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.7617505268855478E-4</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.1551809343432827</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7.759046717164135E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>8.5305940401205905E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3.5645046269771399E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.1304132056855801E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>-59.530646672195871</v>
+      </c>
+      <c r="F7">
+        <v>46582.113402460498</v>
+      </c>
+      <c r="G7">
+        <v>46522.582755788302</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.20431311514793049</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.10215655757396525</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.086123115325275E-3</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.220578447450583</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.1102892237252915</v>
+      </c>
+      <c r="T7" s="3">
+        <v>4.9014978503960423E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8.3394538076028896E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5.6436511687720001E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>-33.746067551299348</v>
+      </c>
+      <c r="F8">
+        <v>46887.1728000773</v>
+      </c>
+      <c r="G8">
+        <v>46853.426732526001</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5.6949178326627201E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.84745891633136E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0283091023110223E-4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.1327352520541385</v>
+      </c>
+      <c r="S8" s="3">
+        <v>6.6367626027069249E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3.2471670528187377E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.106470564149309</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.116779522781176</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>5.9560856757489091</v>
+      </c>
+      <c r="F9">
+        <v>9187.2147972746207</v>
+      </c>
+      <c r="G9">
+        <v>9193.1708829503696</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.13983104976374888</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6.9915524881874441E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.6336759337638261E-4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.14288069312183729</v>
+      </c>
+      <c r="S9" s="3">
+        <v>7.1440346560918647E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3.3476637131914927E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7.6937374757042903E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>7.8243559586239797E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0164300694304984</v>
+      </c>
+      <c r="F10">
+        <v>5889.5329566177397</v>
+      </c>
+      <c r="G10">
+        <v>5890.5493866871702</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6.1519375779130706E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3.0759687889565353E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>8.7011731896070294E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.105338719786097</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.11523972766448599</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>-169.57978749549056</v>
+      </c>
+      <c r="F11">
+        <v>6232.8007141480603</v>
+      </c>
+      <c r="G11">
+        <v>6063.2209266525697</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.34494539170708804</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6.8989078341417612E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.5176961340708627E-3</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7.9109617733271895E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5.3625634320866603E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>92.200218403500912</v>
+      </c>
+      <c r="F12">
+        <v>21213.2044485107</v>
+      </c>
+      <c r="G12">
+        <v>21305.404666914201</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2.9509222966563199E-2</v>
-      </c>
-      <c r="C3">
-        <v>8.25606922824631E-2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>7.0936345616652505E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.90752645821509E-2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.11206991524902629</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5.6034957624513146E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.4072291982879358E-3</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.26822947697904831</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5.3645895395809662E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>7.8223761564129345E-4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.4827853956647512</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8.0464232610791872E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <v>7.6319616959276274E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8.4378011947671194E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5.8502681174166099E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>28.534836775099393</v>
+      </c>
+      <c r="F13">
+        <v>52942.273920548098</v>
+      </c>
+      <c r="G13">
+        <v>52970.808757323197</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>6</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.45335939401470599</v>
+      </c>
+      <c r="S13" s="4">
+        <v>7.5559899002450998E-2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1.2082444760716251E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3.0551107291359202E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3.09682684877715E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.1390658737946069</v>
+      </c>
+      <c r="F14">
+        <v>35760.450139821398</v>
+      </c>
+      <c r="G14">
+        <v>35759.311073947603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5.952542286195372E-3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.488135571548843E-3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.833134899262441</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.28580631361312619</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.38823290869587</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.8853315725598473E-4</v>
+      </c>
+      <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.22325008693048498</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.11162504346524249</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>5.3137314036772528E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.125460238778072</v>
-      </c>
-      <c r="C5">
-        <v>7.8852876369858493E-2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.10001161019880341</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5.0005805099401703E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8.7617505268855478E-4</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.1551809343432827</v>
-      </c>
-      <c r="P5" s="3">
-        <v>7.759046717164135E-2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>8.5305940401205905E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>3.5645046269771399E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.1304132056855801E-2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.20431311514793049</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.10215655757396525</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.086123115325275E-3</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.220578447450583</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.1102892237252915</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>4.9014978503960423E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>8.3394538076028896E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.6436511687720001E-2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5.6949178326627201E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.84745891633136E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.0283091023110223E-4</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.1327352520541385</v>
-      </c>
-      <c r="P7" s="3">
-        <v>6.6367626027069249E-2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>3.2471670528187377E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.13983104976374888</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6.9915524881874441E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.6336759337638261E-4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.14288069312183729</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7.1440346560918647E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3.3476637131914927E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>6.1519375779130706E-2</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3.0759687889565353E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>8.7011731896070294E-8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="K18" s="3">
+        <v>5.8853315725598473E-4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.72497472042562894</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.4424897533948593</v>
+      </c>
+      <c r="N18" s="3">
+        <v>7.708647422176786</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9.1667852524699774E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.8333570504939956E-3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>13.277153221797809</v>
+      </c>
+      <c r="U18" s="3">
+        <v>6.531301098878152E-3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>5.0503290576326485</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.2471927126532631E-3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8.1179817816331577E-4</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>7.2157464425704268E-5</v>
+      </c>
+      <c r="R19" s="3">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0.106470564149309</v>
-      </c>
-      <c r="C10">
-        <v>0.116779522781176</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.34494539170708804</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6.8989078341417612E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1.5176961340708627E-3</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>7.6937374757042903E-2</v>
-      </c>
-      <c r="C11">
-        <v>7.8243559586239797E-2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.26822947697904831</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5.3645895395809662E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>7.8223761564129345E-4</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="3">
-        <v>6</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.4827853956647512</v>
-      </c>
-      <c r="P11" s="3">
-        <v>8.0464232610791872E-2</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>7.6319616959276274E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0.105338719786097</v>
-      </c>
-      <c r="C12">
-        <v>0.11523972766448599</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="4">
-        <v>6</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.45335939401470599</v>
-      </c>
-      <c r="P12" s="4">
-        <v>7.5559899002450998E-2</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1.2082444760716251E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>7.9109617733271895E-2</v>
-      </c>
-      <c r="C13">
-        <v>5.3625634320866603E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>8.4378011947671194E-2</v>
-      </c>
-      <c r="C14">
-        <v>5.8502681174166099E-2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>3.0551107291359202E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.09682684877715E-2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5.952542286195372E-3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.488135571548843E-3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.833134899262441</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.28580631361312619</v>
-      </c>
-      <c r="K16" s="3">
-        <v>6.38823290869587</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.8853315725598473E-4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5.8853315725598473E-4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.72497472042562894</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.4424897533948593</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7.708647422176786</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="3">
-        <v>9.1667852524699774E-3</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1.8333570504939956E-3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>13.277153221797809</v>
-      </c>
-      <c r="R17" s="3">
-        <v>6.531301098878152E-3</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5.0503290576326485</v>
-      </c>
-    </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3.2471927126532631E-3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8.1179817816331577E-4</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="S19" s="3">
         <v>7.2157464425704268E-5</v>
       </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
-        <v>7.2157464425704268E-5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="T19" s="3">
         <v>0.52256362775508247</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U19" s="3">
         <v>0.50213857973130982</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V19" s="3">
         <v>6.607890973703368</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="3">
-        <v>6.9041797585196046E-4</v>
-      </c>
-      <c r="O19" s="3">
-        <v>5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1.3808359517039208E-4</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4">
-        <v>9.7882681561046198E-3</v>
-      </c>
-      <c r="G20" s="4">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+    <row r="20" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="4" t="s">
+      <c r="P20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6.9041797585196046E-4</v>
+      </c>
+      <c r="R20" s="3">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1.3808359517039208E-4</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="4">
+      <c r="I21" s="4">
+        <v>9.7882681561046198E-3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="4">
         <v>9.9293606927476422E-3</v>
       </c>
-      <c r="O21" s="4">
+      <c r="R22" s="4">
         <v>11</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/20 Results/selectionhost.xlsx
+++ b/20 Results/selectionhost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rotavirus\20 Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qx217\Documents\rotavirus\20 Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Proteins" sheetId="2" r:id="rId3"/>
     <sheet name="Host" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -221,13 +221,13 @@
     <t>β/α Value of Host Branch</t>
   </si>
   <si>
-    <t>Ratios of the non-synonymous substitution rates (β) to synonymous substitutions rates (α) were assigned to the host branches in each dataset. The difference in AIC values between models with and without host effect is a significance measure of the host effect on selection. A positive value for the difference indicates that host effect is signifcant (highlighted in green).</t>
+    <t>Ratios of the non-synonymous substitution rates (β) to synonymous substitutions rates (α) were assigned to the host branches in each dataset. The difference in AIC values between models with and without host effect is a significance measure of the host effect on selection. A positive value for the AIC difference indicates that host effect is signifcant (highlighted in green). A value of "β/α" closer to “0” denotes stronger purifying selection, while a value closer to “1” denotes stronger diversifying selection.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -540,7 +540,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB63-4626-9E83-8F52BA028F44}"/>
             </c:ext>
@@ -605,7 +605,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FB63-4626-9E83-8F52BA028F44}"/>
             </c:ext>
@@ -621,11 +621,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489804368"/>
-        <c:axId val="495647952"/>
+        <c:axId val="383476064"/>
+        <c:axId val="383476624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489804368"/>
+        <c:axId val="383476064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495647952"/>
+        <c:crossAx val="383476624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -676,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495647952"/>
+        <c:axId val="383476624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489804368"/>
+        <c:crossAx val="383476064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -917,7 +917,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-109A-4BAC-A3A2-28E06D5C674D}"/>
             </c:ext>
@@ -982,7 +982,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-109A-4BAC-A3A2-28E06D5C674D}"/>
             </c:ext>
@@ -998,11 +998,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488284320"/>
-        <c:axId val="488279280"/>
+        <c:axId val="383479984"/>
+        <c:axId val="383480544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488284320"/>
+        <c:axId val="383479984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488279280"/>
+        <c:crossAx val="383480544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488279280"/>
+        <c:axId val="383480544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488284320"/>
+        <c:crossAx val="383479984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1294,7 +1294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E26-47A8-8216-EBA2437E5189}"/>
             </c:ext>
@@ -1359,7 +1359,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E26-47A8-8216-EBA2437E5189}"/>
             </c:ext>
@@ -1375,11 +1375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="493191616"/>
-        <c:axId val="493187136"/>
+        <c:axId val="383483904"/>
+        <c:axId val="383484464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493191616"/>
+        <c:axId val="383483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493187136"/>
+        <c:crossAx val="383484464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493187136"/>
+        <c:axId val="383484464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493191616"/>
+        <c:crossAx val="383483904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1683,7 +1683,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51DB-4545-A43F-A0D40A86B67B}"/>
             </c:ext>
@@ -1760,7 +1760,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-51DB-4545-A43F-A0D40A86B67B}"/>
             </c:ext>
@@ -1837,7 +1837,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-51DB-4545-A43F-A0D40A86B67B}"/>
             </c:ext>
@@ -1853,11 +1853,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="481592016"/>
-        <c:axId val="481594816"/>
+        <c:axId val="383488384"/>
+        <c:axId val="383488944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481592016"/>
+        <c:axId val="383488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481594816"/>
+        <c:crossAx val="383488944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +1908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481594816"/>
+        <c:axId val="383488944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481592016"/>
+        <c:crossAx val="383488384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +2040,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2167,7 +2167,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6004-4B21-B585-9B622527EBA3}"/>
             </c:ext>
@@ -2250,7 +2250,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6004-4B21-B585-9B622527EBA3}"/>
             </c:ext>
@@ -2333,7 +2333,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6004-4B21-B585-9B622527EBA3}"/>
             </c:ext>
@@ -2349,11 +2349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488382432"/>
-        <c:axId val="488383552"/>
+        <c:axId val="383767680"/>
+        <c:axId val="383768240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488382432"/>
+        <c:axId val="383767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +2396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488383552"/>
+        <c:crossAx val="383768240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2404,7 +2404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488383552"/>
+        <c:axId val="383768240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488382432"/>
+        <c:crossAx val="383767680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,7 +2536,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2580,6 +2580,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2643,6 +2644,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2661,15 +2663,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2688,10 +2693,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2730,7 +2737,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2797,7 +2804,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-4774-885D-14A6A01C9432}"/>
             </c:ext>
@@ -2830,6 +2837,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2848,10 +2856,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4F6F-4886-9474-99EAD8B3D901}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2890,7 +2900,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2957,7 +2967,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-4774-885D-14A6A01C9432}"/>
             </c:ext>
@@ -2973,11 +2983,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488379072"/>
-        <c:axId val="488390832"/>
+        <c:axId val="383771600"/>
+        <c:axId val="383772160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488379072"/>
+        <c:axId val="383771600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,6 +3019,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3075,7 +3086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488390832"/>
+        <c:crossAx val="383772160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3083,7 +3094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488390832"/>
+        <c:axId val="383772160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,6 +3148,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3197,7 +3209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488379072"/>
+        <c:crossAx val="383771600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3211,6 +3223,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3274,7 +3287,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3313,6 +3326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3376,6 +3390,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3394,15 +3409,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3421,10 +3439,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3463,7 +3483,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3536,7 +3556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7279-46F6-ABE5-6AA37DB1B18C}"/>
             </c:ext>
@@ -3569,6 +3589,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3587,15 +3608,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3614,10 +3638,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0342-4A0C-A546-81EB46FAA3AE}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3656,7 +3682,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3729,7 +3755,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7279-46F6-ABE5-6AA37DB1B18C}"/>
             </c:ext>
@@ -3745,11 +3771,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="223323744"/>
-        <c:axId val="223324864"/>
+        <c:axId val="383775520"/>
+        <c:axId val="383776080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223323744"/>
+        <c:axId val="383775520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,6 +3807,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3847,7 +3874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223324864"/>
+        <c:crossAx val="383776080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3855,7 +3882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223324864"/>
+        <c:axId val="383776080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,6 +3942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3975,7 +4003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223323744"/>
+        <c:crossAx val="383775520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3989,6 +4017,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8449,23 +8478,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8501,23 +8513,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10583,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
